--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H2">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I2">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J2">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>161.2706115380745</v>
+        <v>492.5628679647405</v>
       </c>
       <c r="R2">
-        <v>161.2706115380745</v>
+        <v>4433.065811682664</v>
       </c>
       <c r="S2">
-        <v>0.003403459654807958</v>
+        <v>0.008956108175607306</v>
       </c>
       <c r="T2">
-        <v>0.003403459654807958</v>
+        <v>0.008956108175607307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H3">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I3">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J3">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>2449.431812091579</v>
+        <v>3515.562820531227</v>
       </c>
       <c r="R3">
-        <v>2449.431812091579</v>
+        <v>31640.06538478105</v>
       </c>
       <c r="S3">
-        <v>0.05169287987531846</v>
+        <v>0.06392231929483298</v>
       </c>
       <c r="T3">
-        <v>0.05169287987531846</v>
+        <v>0.063922319294833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H4">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I4">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J4">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>2179.187651188966</v>
+        <v>3437.883771968741</v>
       </c>
       <c r="R4">
-        <v>2179.187651188966</v>
+        <v>30940.95394771867</v>
       </c>
       <c r="S4">
-        <v>0.04598963927985309</v>
+        <v>0.06250990677421708</v>
       </c>
       <c r="T4">
-        <v>0.04598963927985309</v>
+        <v>0.06250990677421708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H5">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I5">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J5">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>2722.495397774749</v>
+        <v>3928.417777004529</v>
       </c>
       <c r="R5">
-        <v>2722.495397774749</v>
+        <v>35355.75999304077</v>
       </c>
       <c r="S5">
-        <v>0.05745562169297724</v>
+        <v>0.07142912480432832</v>
       </c>
       <c r="T5">
-        <v>0.05745562169297724</v>
+        <v>0.07142912480432834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H6">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I6">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J6">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>1041.375234336803</v>
+        <v>1492.404853717359</v>
       </c>
       <c r="R6">
-        <v>1041.375234336803</v>
+        <v>13431.64368345623</v>
       </c>
       <c r="S6">
-        <v>0.02197721309405911</v>
+        <v>0.02713590524377665</v>
       </c>
       <c r="T6">
-        <v>0.02197721309405911</v>
+        <v>0.02713590524377665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H7">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I7">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J7">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>662.8308877674101</v>
+        <v>1002.809171519214</v>
       </c>
       <c r="R7">
-        <v>662.8308877674101</v>
+        <v>9025.282543672929</v>
       </c>
       <c r="S7">
-        <v>0.01398840224490821</v>
+        <v>0.01823374842835318</v>
       </c>
       <c r="T7">
-        <v>0.01398840224490821</v>
+        <v>0.01823374842835318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H8">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I8">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J8">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>525.5567315328981</v>
+        <v>1127.983694133098</v>
       </c>
       <c r="R8">
-        <v>525.5567315328981</v>
+        <v>10151.85324719789</v>
       </c>
       <c r="S8">
-        <v>0.0110913644775425</v>
+        <v>0.02050975548912131</v>
       </c>
       <c r="T8">
-        <v>0.0110913644775425</v>
+        <v>0.02050975548912131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H9">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I9">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J9">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>7982.330847499949</v>
+        <v>8050.743966237533</v>
       </c>
       <c r="R9">
-        <v>7982.330847499949</v>
+        <v>72456.6956961378</v>
       </c>
       <c r="S9">
-        <v>0.1684593413002659</v>
+        <v>0.1463840223151019</v>
       </c>
       <c r="T9">
-        <v>0.1684593413002659</v>
+        <v>0.1463840223151019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H10">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I10">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J10">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>7101.645665213678</v>
+        <v>7872.856622605025</v>
       </c>
       <c r="R10">
-        <v>7101.645665213678</v>
+        <v>70855.70960344523</v>
       </c>
       <c r="S10">
-        <v>0.149873335716782</v>
+        <v>0.1431495554150143</v>
       </c>
       <c r="T10">
-        <v>0.149873335716782</v>
+        <v>0.1431495554150143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H11">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I11">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J11">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>8872.204112216992</v>
+        <v>8996.1941599725</v>
       </c>
       <c r="R11">
-        <v>8872.204112216992</v>
+        <v>80965.74743975249</v>
       </c>
       <c r="S11">
-        <v>0.1872392524413708</v>
+        <v>0.1635748313680193</v>
       </c>
       <c r="T11">
-        <v>0.1872392524413708</v>
+        <v>0.1635748313680193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H12">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I12">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J12">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>3393.68567674925</v>
+        <v>3417.651734476213</v>
       </c>
       <c r="R12">
-        <v>3393.68567674925</v>
+        <v>30758.86561028592</v>
       </c>
       <c r="S12">
-        <v>0.07162044077193072</v>
+        <v>0.06214203430923664</v>
       </c>
       <c r="T12">
-        <v>0.07162044077193072</v>
+        <v>0.06214203430923664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H13">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I13">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J13">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>2160.066434992377</v>
+        <v>2296.46298446063</v>
       </c>
       <c r="R13">
-        <v>2160.066434992377</v>
+        <v>20668.16686014567</v>
       </c>
       <c r="S13">
-        <v>0.04558610457966635</v>
+        <v>0.04175582904795757</v>
       </c>
       <c r="T13">
-        <v>0.04558610457966635</v>
+        <v>0.04175582904795757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H14">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I14">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J14">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>1.688192791746184</v>
+        <v>0.6734807971634444</v>
       </c>
       <c r="R14">
-        <v>1.688192791746184</v>
+        <v>6.061327174471001</v>
       </c>
       <c r="S14">
-        <v>3.562766955149321E-05</v>
+        <v>1.224567921352494E-05</v>
       </c>
       <c r="T14">
-        <v>3.562766955149321E-05</v>
+        <v>1.224567921352494E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H15">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I15">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J15">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>25.64083492714066</v>
+        <v>4.806826102488555</v>
       </c>
       <c r="R15">
-        <v>25.64083492714066</v>
+        <v>43.261434922397</v>
       </c>
       <c r="S15">
-        <v>0.000541124922624299</v>
+        <v>8.740093367797684E-05</v>
       </c>
       <c r="T15">
-        <v>0.000541124922624299</v>
+        <v>8.740093367797688E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H16">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I16">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J16">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>22.81189889164001</v>
+        <v>4.700615604395334</v>
       </c>
       <c r="R16">
-        <v>22.81189889164001</v>
+        <v>42.305540439558</v>
       </c>
       <c r="S16">
-        <v>0.0004814229746312159</v>
+        <v>8.54697432205262E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004814229746312159</v>
+        <v>8.546974322052621E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H17">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I17">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J17">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>28.4992849115624</v>
+        <v>5.371322338973889</v>
       </c>
       <c r="R17">
-        <v>28.4992849115624</v>
+        <v>48.341901050765</v>
       </c>
       <c r="S17">
-        <v>0.0006014497338498644</v>
+        <v>9.766498256898613E-05</v>
       </c>
       <c r="T17">
-        <v>0.0006014497338498644</v>
+        <v>9.766498256898617E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H18">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I18">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J18">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>10.90119363561367</v>
+        <v>2.040563907558111</v>
       </c>
       <c r="R18">
-        <v>10.90119363561367</v>
+        <v>18.365075168023</v>
       </c>
       <c r="S18">
-        <v>0.0002300591060839441</v>
+        <v>3.710290053094018E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002300591060839441</v>
+        <v>3.710290053094019E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H19">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I19">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J19">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>6.938563177777016</v>
+        <v>1.371140141010222</v>
       </c>
       <c r="R19">
-        <v>6.938563177777016</v>
+        <v>12.340261269092</v>
       </c>
       <c r="S19">
-        <v>0.000146431638180555</v>
+        <v>2.493098896704503E-05</v>
       </c>
       <c r="T19">
-        <v>0.000146431638180555</v>
+        <v>2.493098896704504E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H20">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I20">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J20">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>1.624710996353318</v>
+        <v>3.693744854910666</v>
       </c>
       <c r="R20">
-        <v>1.624710996353318</v>
+        <v>33.243703694196</v>
       </c>
       <c r="S20">
-        <v>3.428794790367531E-05</v>
+        <v>6.716214445957982E-05</v>
       </c>
       <c r="T20">
-        <v>3.428794790367531E-05</v>
+        <v>6.716214445957983E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H21">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I21">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J21">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>24.67665225528874</v>
+        <v>26.36331913144133</v>
       </c>
       <c r="R21">
-        <v>24.67665225528874</v>
+        <v>237.269872182972</v>
       </c>
       <c r="S21">
-        <v>0.0005207767836037052</v>
+        <v>0.0004793555368573744</v>
       </c>
       <c r="T21">
-        <v>0.0005207767836037052</v>
+        <v>0.0004793555368573745</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H22">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I22">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J22">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>21.95409384411108</v>
+        <v>25.780801437512</v>
       </c>
       <c r="R22">
-        <v>21.95409384411108</v>
+        <v>232.027212937608</v>
       </c>
       <c r="S22">
-        <v>0.0004633198320740486</v>
+        <v>0.0004687638097493337</v>
       </c>
       <c r="T22">
-        <v>0.0004633198320740486</v>
+        <v>0.0004687638097493337</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H23">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I23">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J23">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>27.42761479044582</v>
+        <v>29.45933178379333</v>
       </c>
       <c r="R23">
-        <v>27.42761479044582</v>
+        <v>265.13398605414</v>
       </c>
       <c r="S23">
-        <v>0.0005788331765881446</v>
+        <v>0.0005356493138164169</v>
       </c>
       <c r="T23">
-        <v>0.0005788331765881446</v>
+        <v>0.000535649313816417</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H24">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I24">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J24">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>10.49127164844642</v>
+        <v>11.19159219743867</v>
       </c>
       <c r="R24">
-        <v>10.49127164844642</v>
+        <v>100.724329776948</v>
       </c>
       <c r="S24">
-        <v>0.000221408100599209</v>
+        <v>0.0002034930298170962</v>
       </c>
       <c r="T24">
-        <v>0.000221408100599209</v>
+        <v>0.0002034930298170962</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H25">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I25">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J25">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>6.677649584184127</v>
+        <v>7.520098364421333</v>
       </c>
       <c r="R25">
-        <v>6.677649584184127</v>
+        <v>67.68088527979199</v>
       </c>
       <c r="S25">
-        <v>0.0001409253101477212</v>
+        <v>0.0001367354683499737</v>
       </c>
       <c r="T25">
-        <v>0.0001409253101477212</v>
+        <v>0.0001367354683499737</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H26">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I26">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J26">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>138.9838082049781</v>
+        <v>3.504646438124778</v>
       </c>
       <c r="R26">
-        <v>138.9838082049781</v>
+        <v>31.54181794312301</v>
       </c>
       <c r="S26">
-        <v>0.002933118312046167</v>
+        <v>6.372383031387827E-05</v>
       </c>
       <c r="T26">
-        <v>0.002933118312046167</v>
+        <v>6.372383031387828E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H27">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I27">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J27">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>2110.932413141716</v>
+        <v>25.01366935735123</v>
       </c>
       <c r="R27">
-        <v>2110.932413141716</v>
+        <v>225.123024216161</v>
       </c>
       <c r="S27">
-        <v>0.04454917876006222</v>
+        <v>0.0004548153001442808</v>
       </c>
       <c r="T27">
-        <v>0.04454917876006222</v>
+        <v>0.000454815300144281</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H28">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I28">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J28">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>1878.034662775485</v>
+        <v>24.46097320713934</v>
       </c>
       <c r="R28">
-        <v>1878.034662775485</v>
+        <v>220.148758864254</v>
       </c>
       <c r="S28">
-        <v>0.03963409789376399</v>
+        <v>0.0004447658083301847</v>
       </c>
       <c r="T28">
-        <v>0.03963409789376399</v>
+        <v>0.0004447658083301848</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H29">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I29">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J29">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>2346.259957685648</v>
+        <v>27.95118403166056</v>
       </c>
       <c r="R29">
-        <v>2346.259957685648</v>
+        <v>251.5606562849451</v>
       </c>
       <c r="S29">
-        <v>0.04951553807303104</v>
+        <v>0.000508227160642932</v>
       </c>
       <c r="T29">
-        <v>0.04951553807303104</v>
+        <v>0.0005082271606429322</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H30">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I30">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J30">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>897.462311689132</v>
+        <v>10.61864727325545</v>
       </c>
       <c r="R30">
-        <v>897.462311689132</v>
+        <v>95.56782545929902</v>
       </c>
       <c r="S30">
-        <v>0.01894007060811269</v>
+        <v>0.0001930753612241454</v>
       </c>
       <c r="T30">
-        <v>0.01894007060811269</v>
+        <v>0.0001930753612241454</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.051273</v>
+      </c>
+      <c r="I31">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J31">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N31">
+        <v>61.084052</v>
+      </c>
+      <c r="O31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q31">
+        <v>7.13511273313289</v>
+      </c>
+      <c r="R31">
+        <v>64.21601459819601</v>
+      </c>
+      <c r="S31">
+        <v>0.0001297354015887078</v>
+      </c>
+      <c r="T31">
+        <v>0.0001297354015887078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H32">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I32">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J32">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.00115033333333</v>
+      </c>
+      <c r="N32">
+        <v>30.003451</v>
+      </c>
+      <c r="O32">
+        <v>0.03551374247070085</v>
+      </c>
+      <c r="P32">
+        <v>0.03551374247070086</v>
+      </c>
+      <c r="Q32">
+        <v>324.7458756371341</v>
+      </c>
+      <c r="R32">
+        <v>2922.712880734207</v>
+      </c>
+      <c r="S32">
+        <v>0.005904747151985253</v>
+      </c>
+      <c r="T32">
+        <v>0.005904747151985254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H33">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I33">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J33">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N33">
+        <v>214.143257</v>
+      </c>
+      <c r="O33">
+        <v>0.253471791659403</v>
+      </c>
+      <c r="P33">
+        <v>0.2534717916594031</v>
+      </c>
+      <c r="Q33">
+        <v>2317.80469207535</v>
+      </c>
+      <c r="R33">
+        <v>20860.24222867815</v>
+      </c>
+      <c r="S33">
+        <v>0.04214387827878854</v>
+      </c>
+      <c r="T33">
+        <v>0.04214387827878854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H34">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I34">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J34">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>69.803866</v>
+      </c>
+      <c r="N34">
+        <v>209.411598</v>
+      </c>
+      <c r="O34">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="P34">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="Q34">
+        <v>2266.591025181787</v>
+      </c>
+      <c r="R34">
+        <v>20399.31922663609</v>
+      </c>
+      <c r="S34">
+        <v>0.04121267706448771</v>
+      </c>
+      <c r="T34">
+        <v>0.04121267706448771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H35">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I35">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J35">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.76382166666667</v>
+      </c>
+      <c r="N35">
+        <v>239.291465</v>
+      </c>
+      <c r="O35">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="P35">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="Q35">
+        <v>2589.999274880668</v>
+      </c>
+      <c r="R35">
+        <v>23309.99347392601</v>
+      </c>
+      <c r="S35">
+        <v>0.04709310260520128</v>
+      </c>
+      <c r="T35">
+        <v>0.04709310260520129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>29.7801012595844</v>
-      </c>
-      <c r="H31">
-        <v>29.7801012595844</v>
-      </c>
-      <c r="I31">
-        <v>0.1676272776746799</v>
-      </c>
-      <c r="J31">
-        <v>0.1676272776746799</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="N31">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="O31">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="P31">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="Q31">
-        <v>571.230927316548</v>
-      </c>
-      <c r="R31">
-        <v>571.230927316548</v>
-      </c>
-      <c r="S31">
-        <v>0.0120552740276638</v>
-      </c>
-      <c r="T31">
-        <v>0.0120552740276638</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H36">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I36">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J36">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="N36">
+        <v>90.906763</v>
+      </c>
+      <c r="O36">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="P36">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="Q36">
+        <v>983.9400258247767</v>
+      </c>
+      <c r="R36">
+        <v>8855.460232422991</v>
+      </c>
+      <c r="S36">
+        <v>0.01789065697544087</v>
+      </c>
+      <c r="T36">
+        <v>0.01789065697544087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H37">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I37">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J37">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N37">
+        <v>61.084052</v>
+      </c>
+      <c r="O37">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P37">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q37">
+        <v>661.1504108045516</v>
+      </c>
+      <c r="R37">
+        <v>5950.353697240964</v>
+      </c>
+      <c r="S37">
+        <v>0.01202147986505683</v>
+      </c>
+      <c r="T37">
+        <v>0.01202147986505683</v>
       </c>
     </row>
   </sheetData>
